--- a/StructureDefinition-CitasHackaton.xlsx
+++ b/StructureDefinition-CitasHackaton.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T21:09:05-04:00</t>
+    <t>2023-07-04T17:18:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CitasHackaton.xlsx
+++ b/StructureDefinition-CitasHackaton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4358" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:18:33-04:00</t>
+    <t>2023-07-19T16:02:56-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,13 +380,16 @@
     <t>Estado de la Cita: proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
   </si>
   <si>
-    <t>Estado de la Cita según códigos HL7</t>
+    <t>Estado de la Cita según códigos HL7, es un elemento obligatorio</t>
   </si>
   <si>
     <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
+    <t>Códigos definidos por estándar</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/appointmentstatus</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
     <t>Define la categoría del servicio la cual entenderemos como el tipo de atención en texto libre</t>
   </si>
   <si>
+    <t>Códigos definidos localmente</t>
+  </si>
+  <si>
     <t>https://hlf.cl/fhir/ig/hackaton/ValueSet/TipoAtencionVS</t>
   </si>
   <si>
@@ -675,7 +681,7 @@
     <t>Appointment.serviceCategory.text</t>
   </si>
   <si>
-    <t>texto libre que describe el servicio</t>
+    <t>Texto libre que describe el servicio</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -1327,7 +1333,7 @@
 </t>
   </si>
   <si>
-    <t>Participante del encuentro, se define el principio el Prestador</t>
+    <t>Participante del encuentro, se define en principio el Prestador</t>
   </si>
   <si>
     <t>En principio prestador individual</t>
@@ -3413,9 +3419,11 @@
       <c r="X11" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y11" s="2"/>
+      <c r="Y11" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>34</v>
@@ -3442,33 +3450,33 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3491,13 +3499,13 @@
         <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3524,11 +3532,11 @@
         <v>34</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>34</v>
@@ -3546,7 +3554,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -3555,7 +3563,7 @@
         <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>57</v>
@@ -3567,7 +3575,7 @@
         <v>34</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>34</v>
@@ -3578,10 +3586,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3604,13 +3612,13 @@
         <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3637,13 +3645,13 @@
         <v>34</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>34</v>
@@ -3661,7 +3669,7 @@
         <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3679,24 +3687,24 @@
         <v>34</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3719,13 +3727,13 @@
         <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3754,9 +3762,11 @@
       <c r="X14" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y14" s="2"/>
+      <c r="Y14" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>34</v>
@@ -3774,7 +3784,7 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3795,10 +3805,10 @@
         <v>34</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>34</v>
@@ -3806,10 +3816,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3835,10 +3845,10 @@
         <v>47</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3889,7 +3899,7 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3898,7 +3908,7 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>34</v>
@@ -3910,7 +3920,7 @@
         <v>34</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>34</v>
@@ -3921,10 +3931,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3953,7 +3963,7 @@
         <v>94</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>96</v>
@@ -3994,19 +4004,19 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -4027,7 +4037,7 @@
         <v>34</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>34</v>
@@ -4038,10 +4048,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4064,19 +4074,19 @@
         <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>34</v>
@@ -4125,7 +4135,7 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -4146,21 +4156,21 @@
         <v>34</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4186,10 +4196,10 @@
         <v>47</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4240,7 +4250,7 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4249,7 +4259,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>34</v>
@@ -4261,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>34</v>
@@ -4272,10 +4282,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4304,7 +4314,7 @@
         <v>94</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>96</v>
@@ -4345,19 +4355,19 @@
         <v>34</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4378,7 +4388,7 @@
         <v>34</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>34</v>
@@ -4389,10 +4399,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4418,16 +4428,16 @@
         <v>59</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>34</v>
@@ -4476,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4497,21 +4507,21 @@
         <v>34</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4534,16 +4544,16 @@
         <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4593,7 +4603,7 @@
         <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4614,21 +4624,21 @@
         <v>34</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4654,14 +4664,14 @@
         <v>65</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
@@ -4710,7 +4720,7 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4719,7 +4729,7 @@
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>57</v>
@@ -4731,21 +4741,21 @@
         <v>34</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4768,17 +4778,17 @@
         <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>34</v>
@@ -4827,7 +4837,7 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4836,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>57</v>
@@ -4848,21 +4858,21 @@
         <v>34</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4885,19 +4895,19 @@
         <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>34</v>
@@ -4946,7 +4956,7 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4967,21 +4977,21 @@
         <v>34</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5004,19 +5014,19 @@
         <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>34</v>
@@ -5065,7 +5075,7 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -5086,21 +5096,21 @@
         <v>34</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5123,16 +5133,16 @@
         <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5158,11 +5168,11 @@
         <v>34</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>34</v>
@@ -5180,7 +5190,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -5195,27 +5205,27 @@
         <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5238,13 +5248,13 @@
         <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5273,9 +5283,11 @@
       <c r="X27" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>34</v>
@@ -5293,7 +5305,7 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5311,10 +5323,10 @@
         <v>34</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>34</v>
@@ -5325,10 +5337,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5354,10 +5366,10 @@
         <v>47</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5408,7 +5420,7 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5417,7 +5429,7 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>34</v>
@@ -5429,7 +5441,7 @@
         <v>34</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>34</v>
@@ -5440,10 +5452,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5472,7 +5484,7 @@
         <v>94</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>96</v>
@@ -5513,19 +5525,19 @@
         <v>34</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -5546,7 +5558,7 @@
         <v>34</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>34</v>
@@ -5557,10 +5569,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5583,19 +5595,19 @@
         <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>34</v>
@@ -5644,7 +5656,7 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5665,21 +5677,21 @@
         <v>34</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5705,10 +5717,10 @@
         <v>47</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5759,7 +5771,7 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5768,7 +5780,7 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>34</v>
@@ -5780,7 +5792,7 @@
         <v>34</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>34</v>
@@ -5791,10 +5803,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5823,7 +5835,7 @@
         <v>94</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>96</v>
@@ -5864,19 +5876,19 @@
         <v>34</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5897,7 +5909,7 @@
         <v>34</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>34</v>
@@ -5908,10 +5920,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5937,16 +5949,16 @@
         <v>59</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>34</v>
@@ -5995,7 +6007,7 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -6016,21 +6028,21 @@
         <v>34</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6053,16 +6065,16 @@
         <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6112,7 +6124,7 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -6133,21 +6145,21 @@
         <v>34</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6173,14 +6185,14 @@
         <v>65</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>34</v>
@@ -6229,7 +6241,7 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -6238,7 +6250,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>57</v>
@@ -6250,21 +6262,21 @@
         <v>34</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6287,17 +6299,17 @@
         <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>34</v>
@@ -6346,7 +6358,7 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6355,7 +6367,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>57</v>
@@ -6367,21 +6379,21 @@
         <v>34</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6404,19 +6416,19 @@
         <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>34</v>
@@ -6465,7 +6477,7 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6486,21 +6498,21 @@
         <v>34</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6523,19 +6535,19 @@
         <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>34</v>
@@ -6584,7 +6596,7 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6605,21 +6617,21 @@
         <v>34</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6642,13 +6654,13 @@
         <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6675,11 +6687,11 @@
         <v>34</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>34</v>
@@ -6697,7 +6709,7 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6718,21 +6730,21 @@
         <v>34</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6755,13 +6767,13 @@
         <v>46</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6788,13 +6800,13 @@
         <v>34</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>34</v>
@@ -6812,7 +6824,7 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6827,27 +6839,27 @@
         <v>57</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6870,16 +6882,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6905,13 +6917,13 @@
         <v>34</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>34</v>
@@ -6929,7 +6941,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6944,27 +6956,27 @@
         <v>57</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6987,13 +6999,13 @@
         <v>34</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7044,7 +7056,7 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -7065,21 +7077,21 @@
         <v>34</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7102,13 +7114,13 @@
         <v>34</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7159,7 +7171,7 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -7174,16 +7186,16 @@
         <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>34</v>
@@ -7191,10 +7203,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7217,16 +7229,16 @@
         <v>34</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7276,7 +7288,7 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7308,10 +7320,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7334,13 +7346,13 @@
         <v>34</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7391,7 +7403,7 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7406,16 +7418,16 @@
         <v>57</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>34</v>
@@ -7423,10 +7435,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7449,16 +7461,16 @@
         <v>34</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7508,7 +7520,7 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7526,7 +7538,7 @@
         <v>34</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>90</v>
@@ -7540,10 +7552,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7566,16 +7578,16 @@
         <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7625,7 +7637,7 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7634,7 +7646,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>57</v>
@@ -7643,7 +7655,7 @@
         <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>90</v>
@@ -7657,10 +7669,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7683,16 +7695,16 @@
         <v>46</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7742,7 +7754,7 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -7751,33 +7763,33 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7800,16 +7812,16 @@
         <v>46</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7859,7 +7871,7 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -7868,33 +7880,33 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7917,13 +7929,13 @@
         <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7974,7 +7986,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7989,16 +8001,16 @@
         <v>57</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>34</v>
@@ -8006,10 +8018,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8032,16 +8044,16 @@
         <v>34</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8091,7 +8103,7 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8106,27 +8118,27 @@
         <v>57</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8149,13 +8161,13 @@
         <v>34</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8206,7 +8218,7 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8227,7 +8239,7 @@
         <v>34</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>34</v>
@@ -8238,10 +8250,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8264,16 +8276,16 @@
         <v>34</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8323,7 +8335,7 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8344,7 +8356,7 @@
         <v>34</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>34</v>
@@ -8355,10 +8367,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8381,16 +8393,16 @@
         <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8440,7 +8452,7 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8455,16 +8467,16 @@
         <v>57</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>34</v>
@@ -8472,10 +8484,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8498,16 +8510,16 @@
         <v>34</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8557,7 +8569,7 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8566,7 +8578,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>57</v>
@@ -8589,10 +8601,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8615,16 +8627,16 @@
         <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8674,7 +8686,7 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8689,27 +8701,27 @@
         <v>57</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8732,13 +8744,13 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8789,7 +8801,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -8810,25 +8822,25 @@
         <v>34</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8847,13 +8859,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8904,7 +8916,7 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8919,13 +8931,13 @@
         <v>57</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>34</v>
@@ -8936,10 +8948,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8962,13 +8974,13 @@
         <v>46</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9019,7 +9031,7 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -9037,24 +9049,24 @@
         <v>34</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9080,10 +9092,10 @@
         <v>47</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9134,7 +9146,7 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9143,7 +9155,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>34</v>
@@ -9155,7 +9167,7 @@
         <v>34</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>34</v>
@@ -9166,10 +9178,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9198,7 +9210,7 @@
         <v>94</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>96</v>
@@ -9239,19 +9251,19 @@
         <v>34</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9272,7 +9284,7 @@
         <v>34</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>34</v>
@@ -9283,10 +9295,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9309,16 +9321,16 @@
         <v>46</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9368,7 +9380,7 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9377,7 +9389,7 @@
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>57</v>
@@ -9400,10 +9412,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9429,13 +9441,13 @@
         <v>59</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9461,13 +9473,13 @@
         <v>34</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>34</v>
@@ -9485,7 +9497,7 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9517,10 +9529,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9546,13 +9558,13 @@
         <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9602,7 +9614,7 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9611,7 +9623,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>57</v>
@@ -9623,7 +9635,7 @@
         <v>34</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>34</v>
@@ -9634,10 +9646,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9660,16 +9672,16 @@
         <v>46</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9719,7 +9731,7 @@
         <v>34</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -9728,7 +9740,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>57</v>
@@ -9751,10 +9763,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9777,13 +9789,13 @@
         <v>34</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9834,7 +9846,7 @@
         <v>34</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>45</v>
@@ -9846,30 +9858,30 @@
         <v>34</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9892,13 +9904,13 @@
         <v>34</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9949,7 +9961,7 @@
         <v>34</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -9958,7 +9970,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>34</v>
@@ -9970,7 +9982,7 @@
         <v>34</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>34</v>
@@ -9981,10 +9993,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10013,7 +10025,7 @@
         <v>94</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>96</v>
@@ -10066,7 +10078,7 @@
         <v>34</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -10087,7 +10099,7 @@
         <v>34</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>34</v>
@@ -10098,14 +10110,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10127,10 +10139,10 @@
         <v>93</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>96</v>
@@ -10185,7 +10197,7 @@
         <v>34</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -10217,10 +10229,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10243,16 +10255,16 @@
         <v>46</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10278,13 +10290,13 @@
         <v>34</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>34</v>
@@ -10302,7 +10314,7 @@
         <v>34</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10311,7 +10323,7 @@
         <v>36</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>57</v>
@@ -10323,21 +10335,21 @@
         <v>34</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10360,13 +10372,13 @@
         <v>34</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10417,7 +10429,7 @@
         <v>34</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10438,7 +10450,7 @@
         <v>34</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>34</v>
@@ -10449,10 +10461,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10475,16 +10487,16 @@
         <v>46</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10534,7 +10546,7 @@
         <v>34</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10543,7 +10555,7 @@
         <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>57</v>
@@ -10552,24 +10564,24 @@
         <v>34</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10595,10 +10607,10 @@
         <v>47</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10649,7 +10661,7 @@
         <v>34</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -10658,7 +10670,7 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>34</v>
@@ -10670,7 +10682,7 @@
         <v>34</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>34</v>
@@ -10681,10 +10693,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10713,7 +10725,7 @@
         <v>94</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>96</v>
@@ -10754,19 +10766,19 @@
         <v>34</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -10787,7 +10799,7 @@
         <v>34</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>34</v>
@@ -10798,10 +10810,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10824,16 +10836,16 @@
         <v>46</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10883,7 +10895,7 @@
         <v>34</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
@@ -10892,7 +10904,7 @@
         <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>57</v>
@@ -10915,10 +10927,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10944,13 +10956,13 @@
         <v>59</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10976,13 +10988,13 @@
         <v>34</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>34</v>
@@ -11000,7 +11012,7 @@
         <v>34</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
@@ -11032,10 +11044,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11061,13 +11073,13 @@
         <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11117,7 +11129,7 @@
         <v>34</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
@@ -11126,7 +11138,7 @@
         <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>57</v>
@@ -11138,7 +11150,7 @@
         <v>34</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>34</v>
@@ -11149,10 +11161,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11175,16 +11187,16 @@
         <v>46</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11234,7 +11246,7 @@
         <v>34</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
@@ -11243,7 +11255,7 @@
         <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>57</v>
@@ -11266,10 +11278,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11292,16 +11304,16 @@
         <v>46</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11351,7 +11363,7 @@
         <v>34</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
@@ -11372,10 +11384,10 @@
         <v>34</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>34</v>
@@ -11383,10 +11395,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11412,10 +11424,10 @@
         <v>65</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11427,7 +11439,7 @@
         <v>34</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>34</v>
@@ -11444,9 +11456,11 @@
       <c r="X80" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="Y80" s="2"/>
+      <c r="Y80" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>34</v>
@@ -11464,7 +11478,7 @@
         <v>34</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>45</v>
@@ -11485,21 +11499,21 @@
         <v>34</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11522,13 +11536,13 @@
         <v>34</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11579,7 +11593,7 @@
         <v>34</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -11611,10 +11625,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11637,16 +11651,16 @@
         <v>34</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11696,7 +11710,7 @@
         <v>34</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
@@ -11728,10 +11742,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11754,13 +11768,13 @@
         <v>34</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11811,7 +11825,7 @@
         <v>34</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -11820,7 +11834,7 @@
         <v>36</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>57</v>
@@ -11843,10 +11857,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11869,13 +11883,13 @@
         <v>34</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11926,7 +11940,7 @@
         <v>34</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>35</v>
@@ -11935,7 +11949,7 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>34</v>
@@ -11947,7 +11961,7 @@
         <v>34</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>34</v>
@@ -11958,10 +11972,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11990,7 +12004,7 @@
         <v>94</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>96</v>
@@ -12043,7 +12057,7 @@
         <v>34</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>35</v>
@@ -12064,7 +12078,7 @@
         <v>34</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>34</v>
@@ -12075,14 +12089,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12104,10 +12118,10 @@
         <v>93</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>96</v>
@@ -12162,7 +12176,7 @@
         <v>34</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>35</v>
@@ -12194,10 +12208,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12220,13 +12234,13 @@
         <v>34</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12256,10 +12270,10 @@
         <v>69</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>34</v>
@@ -12277,7 +12291,7 @@
         <v>34</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>35</v>
@@ -12301,7 +12315,7 @@
         <v>90</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>34</v>
@@ -12309,10 +12323,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12335,13 +12349,13 @@
         <v>34</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12368,13 +12382,13 @@
         <v>34</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>34</v>
@@ -12392,7 +12406,7 @@
         <v>34</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>45</v>
@@ -12416,7 +12430,7 @@
         <v>34</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>34</v>
@@ -12424,10 +12438,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12450,13 +12464,13 @@
         <v>34</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12507,7 +12521,7 @@
         <v>34</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>35</v>
@@ -12531,7 +12545,7 @@
         <v>34</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>34</v>
@@ -12539,10 +12553,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12565,13 +12579,13 @@
         <v>34</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12622,7 +12636,7 @@
         <v>34</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>35</v>
@@ -12646,7 +12660,7 @@
         <v>34</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>34</v>
@@ -12654,10 +12668,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12680,13 +12694,13 @@
         <v>34</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12737,7 +12751,7 @@
         <v>34</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>35</v>
@@ -12761,7 +12775,7 @@
         <v>34</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>34</v>
@@ -12769,10 +12783,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12795,13 +12809,13 @@
         <v>34</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12852,7 +12866,7 @@
         <v>34</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>35</v>
@@ -12884,10 +12898,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12910,13 +12924,13 @@
         <v>34</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12967,7 +12981,7 @@
         <v>34</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>35</v>
@@ -12976,7 +12990,7 @@
         <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>34</v>
@@ -12988,7 +13002,7 @@
         <v>34</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>34</v>
@@ -12999,10 +13013,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13031,7 +13045,7 @@
         <v>94</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>96</v>
@@ -13084,7 +13098,7 @@
         <v>34</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>35</v>
@@ -13105,7 +13119,7 @@
         <v>34</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>34</v>
@@ -13116,14 +13130,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13145,10 +13159,10 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>96</v>
@@ -13203,7 +13217,7 @@
         <v>34</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>35</v>
@@ -13235,10 +13249,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13261,13 +13275,13 @@
         <v>34</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13318,7 +13332,7 @@
         <v>34</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>35</v>
@@ -13350,10 +13364,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13376,13 +13390,13 @@
         <v>34</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13433,7 +13447,7 @@
         <v>34</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>35</v>
@@ -13465,10 +13479,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13491,13 +13505,13 @@
         <v>34</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13548,7 +13562,7 @@
         <v>34</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>35</v>
@@ -13580,10 +13594,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13606,13 +13620,13 @@
         <v>34</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13663,7 +13677,7 @@
         <v>34</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>35</v>
@@ -13695,10 +13709,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13721,13 +13735,13 @@
         <v>34</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13778,7 +13792,7 @@
         <v>34</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>35</v>
@@ -13810,10 +13824,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13836,13 +13850,13 @@
         <v>34</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13893,7 +13907,7 @@
         <v>34</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>35</v>
@@ -13925,10 +13939,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13951,13 +13965,13 @@
         <v>34</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14008,7 +14022,7 @@
         <v>34</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>35</v>
@@ -14040,10 +14054,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14066,13 +14080,13 @@
         <v>34</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14123,7 +14137,7 @@
         <v>34</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>35</v>
@@ -14155,10 +14169,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14181,13 +14195,13 @@
         <v>34</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14238,7 +14252,7 @@
         <v>34</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>35</v>
@@ -14270,10 +14284,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14296,13 +14310,13 @@
         <v>34</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14353,7 +14367,7 @@
         <v>34</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>35</v>
@@ -14362,7 +14376,7 @@
         <v>45</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>34</v>
@@ -14374,7 +14388,7 @@
         <v>34</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>34</v>
@@ -14385,10 +14399,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14417,7 +14431,7 @@
         <v>94</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>96</v>
@@ -14470,7 +14484,7 @@
         <v>34</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>35</v>
@@ -14491,7 +14505,7 @@
         <v>34</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>34</v>
@@ -14502,14 +14516,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14531,10 +14545,10 @@
         <v>93</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>96</v>
@@ -14589,7 +14603,7 @@
         <v>34</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>35</v>
@@ -14621,10 +14635,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14647,13 +14661,13 @@
         <v>34</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14704,7 +14718,7 @@
         <v>34</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>35</v>
@@ -14736,10 +14750,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14762,13 +14776,13 @@
         <v>34</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -14798,10 +14812,10 @@
         <v>69</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>34</v>
@@ -14819,7 +14833,7 @@
         <v>34</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>35</v>
@@ -14851,10 +14865,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14877,16 +14891,16 @@
         <v>34</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14915,10 +14929,10 @@
         <v>69</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>34</v>
@@ -14936,7 +14950,7 @@
         <v>34</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>35</v>
@@ -14968,10 +14982,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14994,13 +15008,13 @@
         <v>34</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15051,7 +15065,7 @@
         <v>34</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>45</v>
@@ -15083,10 +15097,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15109,13 +15123,13 @@
         <v>34</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15166,7 +15180,7 @@
         <v>34</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>35</v>
@@ -15198,10 +15212,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15224,13 +15238,13 @@
         <v>34</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15281,7 +15295,7 @@
         <v>34</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>35</v>
@@ -15290,7 +15304,7 @@
         <v>45</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>34</v>
@@ -15302,7 +15316,7 @@
         <v>34</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>34</v>
@@ -15313,10 +15327,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15345,7 +15359,7 @@
         <v>94</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>96</v>
@@ -15398,7 +15412,7 @@
         <v>34</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>35</v>
@@ -15419,7 +15433,7 @@
         <v>34</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>34</v>
@@ -15430,14 +15444,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15459,10 +15473,10 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>96</v>
@@ -15517,7 +15531,7 @@
         <v>34</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>35</v>
@@ -15549,10 +15563,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15575,13 +15589,13 @@
         <v>34</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15632,7 +15646,7 @@
         <v>34</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>45</v>
@@ -15664,10 +15678,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15690,16 +15704,16 @@
         <v>34</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15749,7 +15763,7 @@
         <v>34</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>35</v>
@@ -15773,7 +15787,7 @@
         <v>34</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>34</v>
@@ -15781,10 +15795,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15807,16 +15821,16 @@
         <v>34</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -15866,7 +15880,7 @@
         <v>34</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>35</v>

--- a/StructureDefinition-CitasHackaton.xlsx
+++ b/StructureDefinition-CitasHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CitasHackaton.xlsx
+++ b/StructureDefinition-CitasHackaton.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-CitasHackaton.xlsx
+++ b/StructureDefinition-CitasHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
